--- a/Faran Irfan/inpIndeed.xlsx
+++ b/Faran Irfan/inpIndeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Upwork\Faran Irfan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37088EA2-CF21-4436-BFEE-B16E72A645BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF193582-F309-456A-AF10-3A922AEC996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
   <si>
     <t>Marketing Manager</t>
   </si>
@@ -334,6 +334,95 @@
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=588daacbfbd97b98&amp;bb=BDaZ0ELEODYLkxzNf_fu_eF-pZlnh9OOT-oQAd0RSbKx9TPsnZXHCrz8go5-ffY8MMevEG1kNiFG-O0ab5MXPNSfADwvJ8tCF5eP960jLi3sQGn3WMCpgwMMPSlboMLE&amp;xkcb=SoBA67M39Ww698UUhh0NbzkdCdPP&amp;fccid=4aa8fe3e72a441ec&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Global Marketing Operations Manager</t>
+  </si>
+  <si>
+    <t>GE HEALTHCARE</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=161383e370b60125&amp;bb=sykdRVqWm3XYecXGo39HiSIIW5ADr8Ftirj702NMN1WO-_AHZMVShwQf0XtMHbP4wP98JdlSylHJMHxY_kOv9AtZ4KkmxRyJ7jd7xEwNZjR0fdCPhO-UbigYSGnVSzCl&amp;xkcb=SoB967M39i1IkX0Tcx0KbzkdCdPP&amp;fccid=65b5f2aba4dbd31f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>This role will streamline marketing operational processes, identify gaps, partner with other analytics teams to monitor and measure the effectiveness of…
+View all GE HEALTHCARE jobs in Remote - Remote jobs - Operations Manager jobs in Remote
+Salary Search: Global Marketing Operations Manager salaries in Remote
+See popular questions &amp; answers about GE HEALTHCARE</t>
+  </si>
+  <si>
+    <t>Global Partner Marketing Campaign Manager</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=c5ec37c2e70ff44a&amp;bb=C3hSqhY4uDrwvuyGi1lHACQJwHhYFeM0n8_2nFYNtDaomIkgN_djbhSrnLH4KVXkydtJwY1U7iUelFTmf-ADmFB9WCYenXCOhznju7Bz7GYF064S6I81-w%3D%3D&amp;xkcb=SoDg67M39i2LOKgPKb0JbzkdCdPP&amp;fccid=aef928e89977f7f0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Ability to communicate and influence senior marketing professionals from product marketing to the CMO.
+Manage budget tracking and utilization in partnership…
+View all Splunk jobs in Remote - Remote jobs - Campaign Manager jobs in Remote
+Salary Search: Global Partner Marketing Campaign Manager salaries in Remote
+See popular questions &amp; answers about Splunk</t>
+  </si>
+  <si>
+    <t>Senior Campaign Strategist, Candidate Races</t>
+  </si>
+  <si>
+    <t>ACLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=5149f2d75fc3b0bd&amp;bb=C3hSqhY4uDrwvuyGi1lHAG96tY8MghPtF8ssdhMZYHgGqa6VuuC1Ad4do5h4Pru73H3Oyol1SLXtHST535ethoZVQ3RCranux-fbwv8UimLBj9byAchTQErfuBFYYinc&amp;xkcb=SoBU67M39i2LOKgPKb0IbzkdCdPP&amp;fccid=b386980fa584d9b2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>The ACLU seeks a full-time, term-limited position with an end date of December 31, 2024 of Senior Campaign Strategist in the National Political Advocacy…
+View all ACLU jobs in Remote - Remote jobs - Senior Content Strategist jobs in Remote
+Salary Search: Senior Campaign Strategist, Candidate Races salaries in Remote
+See popular questions &amp; answers about ACLU</t>
+  </si>
+  <si>
+    <t>Integrated Marketing Manager</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=88e077f43fc2c009&amp;bb=C3hSqhY4uDrwvuyGi1lHAFO-27iq6kreR93zwqHF7ZbOuq-KUg9J_qFMDsaBl6C16luGexh6S1svAVcUuEKRClzpnYGhkKiVTlCSJE1p-3sw0hnwTMtFU2ub6I1U-_Tf&amp;xkcb=SoDa67M39i2LOKgPKb0PbzkdCdPP&amp;fccid=0f65c592d7942f7e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Executes unique marketing opportunities that drive a competitive edge for the company.
+Track and report on the impact of integrated marketing campaigns on…
+View all C1 jobs in Remote - Remote jobs - Integration Manager jobs in Remote
+Salary Search: Integrated Marketing Manager salaries in Remote
+See popular questions &amp; answers about C1</t>
+  </si>
+  <si>
+    <t>Marketing Operations Manager (Remote)</t>
+  </si>
+  <si>
+    <t>Tealium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 days ago</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=5040c5e4570248da&amp;bb=C3hSqhY4uDrwvuyGi1lHAICfTHmZcWJA9M97DR5fz9tTJbfRxsprKX1a6VfK3w0Xr5s8qmPbCvk05jf0lE4bMQutu9mkFOp3570FQ54cpy6MQoFTQ29BAefLdQVqo7J8&amp;xkcb=SoDz67M39i2LOKgPKb0NbzkdCdPP&amp;fccid=3059be2cc4c2e331&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Build comprehensive dashboards, analyze marketing and sales data to develop insights, and provide actionable recommendations on how to optimize marketing…
+View all Tealium jobs in Remote - Remote jobs - Operations Manager jobs in Remote
+Salary Search: Marketing Operations Manager (Remote) salaries in Remote
+See popular questions &amp; answers about Tealium</t>
   </si>
 </sst>
 </file>
@@ -662,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74AAF4-DC53-47AD-96B0-FF6E848DDF68}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,14 +1329,30 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1">
+        <v>70</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1267,6 +1372,210 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="1">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="1">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="1">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Faran Irfan/inpIndeed.xlsx
+++ b/Faran Irfan/inpIndeed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Upwork\Faran Irfan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Upwork\Faran Irfan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF193582-F309-456A-AF10-3A922AEC996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC4F7D-C0D2-44F7-B74C-A0044965A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="3135" windowWidth="11655" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
   <si>
     <t>Marketing Manager</t>
   </si>
@@ -423,6 +423,36 @@
 View all Tealium jobs in Remote - Remote jobs - Operations Manager jobs in Remote
 Salary Search: Marketing Operations Manager (Remote) salaries in Remote
 See popular questions &amp; answers about Tealium</t>
+  </si>
+  <si>
+    <t>Corporate Communications Manager</t>
+  </si>
+  <si>
+    <t>Zillow</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=c8dba3303782ca4c&amp;bb=elcRf6ZQ_qXWW15_FqlNTvFEg9S_qMSF6b0LtghIeO6hyLC0eiMtw8YaJsW7eSL33tvhnTEkekM1yLwqrK6KoHe_8nHP270uwriMXfmY4qG0-3Xir3J8IQJN6MvCbEN8&amp;xkcb=SoCd67M38KDWvfwSFZ0MbzkdCdPP&amp;fccid=913e1b259c8d65e2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Work with Zillow’s legal, industry, economic research, CSR, social impact and product teams to build, understand, and communicate policies and initiatives.
+View all Zillow jobs in Remote - Remote jobs - Communications Manager jobs in Remote
+Salary Search: Corporate Communications Manager salaries in Remote
+See popular questions &amp; answers about Zillow</t>
+  </si>
+  <si>
+    <t>Sr Product Marketing Manager</t>
+  </si>
+  <si>
+    <t>American Express Global Business Travel</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=45b6ba245d47cc3c&amp;bb=JF3ocd2XXu7G7_gsxJtnDHwCD5sINB3FCTRUGdlDQka5qvfq46f2EffAWFwPKYxLFeW1QE5zLOz0vhNLPfByxe7DQqibukflOnym2r3IVSaH-Uh6MpcC2iXMFN_7cPj6&amp;xkcb=SoD467M38KD0tHwYxh0KbzkdCdPP&amp;fccid=65a610215742c669&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Most importantly, you will be an evangelist and cross-functional leader who unites marketing, sales, customer success, and product teams to drive business…
+View all American Express Global Business Travel jobs in Remote - Remote jobs - Product Marketing Manager jobs in Remote
+Salary Search: Sr Product Marketing Manager salaries in Remote
+See popular questions &amp; answers about American Express Global Business Travel</t>
   </si>
 </sst>
 </file>
@@ -467,11 +497,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,17 +781,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.81640625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -769,7 +799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -777,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -785,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -793,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -801,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -809,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -817,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -825,7 +855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -833,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -841,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -849,7 +879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -857,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -865,7 +895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -873,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -881,7 +911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -889,7 +919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -897,7 +927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -905,7 +935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -913,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -921,7 +951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -929,7 +959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -937,7 +967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -945,7 +975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -953,7 +983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -961,7 +991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -969,7 +999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -977,7 +1007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -985,7 +1015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -993,7 +1023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1001,7 +1031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1009,7 +1039,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1025,556 +1055,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74AAF4-DC53-47AD-96B0-FF6E848DDF68}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="7" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>55</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>85</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>85</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>85</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>80</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>70</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>70</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>70</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>85</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="2">
+        <v>70</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Faran Irfan/inpIndeed.xlsx
+++ b/Faran Irfan/inpIndeed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Upwork\Faran Irfan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC4F7D-C0D2-44F7-B74C-A0044965A395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F09EF-B9C6-480E-95F8-6D6D5F283586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="3135" windowWidth="11655" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Marketing Manager</t>
   </si>
@@ -220,239 +220,83 @@
     <t>Remote</t>
   </si>
   <si>
+    <t>BaseLink</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DetailLink</t>
+  </si>
+  <si>
+    <t>Snippet</t>
+  </si>
+  <si>
+    <t>FittingScore</t>
+  </si>
+  <si>
     <t>https://www.indeed.com/jobs?q=marketing+manager&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;rbl=Remote&amp;jlid=aaa2b906602aa8f5&amp;start=0</t>
   </si>
   <si>
-    <t>Vacant to Vibrant Marketing Manager</t>
-  </si>
-  <si>
-    <t>SF New Deal</t>
-  </si>
-  <si>
-    <t>Reporting to the Director of Marketing &amp; Communications, the ideal candidate will thrive in a dynamic environment, work collaboratively across cross-functional…
-View all SF New Deal jobs in Remote - Remote jobs - Marketing Manager jobs in Remote
-Salary Search: Vacant to Vibrant Marketing Manager salaries in Remote</t>
-  </si>
-  <si>
-    <t>Movement Climbing, Yoga and Fitness</t>
-  </si>
-  <si>
-    <t>A strong background in marketing, with a minimum of 3-5 years of experience, preferably in performance marketing within high-growth environments.
-View all Movement Climbing, Yoga and Fitness jobs in Remote - Remote jobs - Performance Manager jobs in Remote
-Salary Search: Performance Marketing Manager salaries in Remote</t>
-  </si>
-  <si>
-    <t>BaseLink</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>DetailLink</t>
-  </si>
-  <si>
-    <t>Snippet</t>
-  </si>
-  <si>
-    <t>Associate Field Marketing Manager</t>
-  </si>
-  <si>
-    <t>Rocket Software</t>
-  </si>
-  <si>
-    <t>Extensive paid time off programs (paid holidays, sick, and unlimited vacation time).
-Healthcare coverage options to fit you (and your family’s) needs.
-View all Rocket Software jobs in Remote - Remote jobs - Field Marketer jobs in Remote
-Salary Search: Associate Field Marketing Manager salaries in Remote
-See popular questions &amp; answers about Rocket Software</t>
+    <t>Just posted</t>
+  </si>
+  <si>
+    <t>Email &amp; SMS Marketing Manager</t>
+  </si>
+  <si>
+    <t>Sandhill Digital LLC</t>
+  </si>
+  <si>
+    <t>3+ years of email &amp; SMS marketing experience.
+Bachelor's degree or demonstrated ability in acquisition marketing.
+This job is fully remote.
+View all Sandhill Digital LLC jobs in Remote - Remote jobs - Marketing Manager jobs in Remote
+Salary Search: Email &amp; SMS Marketing Manager salaries in Remote</t>
+  </si>
+  <si>
+    <t>EmployerActive 3 days ago</t>
   </si>
   <si>
     <t>Marketing Operations Manager</t>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Collaborate cross-functionally with marketing, sales, and IT teams to drive alignment and achieve business objectives.
-View all Owner jobs in Remote - Remote jobs - Operations Manager jobs in Remote
+    <t>Sphera Solutions</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=488e39a617dd3b37&amp;bb=CfhYZYe_WqA-nUFsROVIxW1FPsmUVMo217AjZyg5IB5a59coywpX_ZqK_wEFI1POQaMIR4b3R-_uLnVlu2wII5BcC3E1nFe8Dh9yEqFyHdwgARVlzKxqASm_NjsVf0FH&amp;xkcb=SoDr67M38RD1TKwB3B0LbzkdCdPP&amp;fccid=13589ec98699278f&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Collaborate closely with cross-functional teams to guarantee cohesive alignment and execution of marketing endeavors.
+Experience with reporting and analytics.
+View all Sphera Solutions jobs in Remote - Remote jobs - Operations Manager jobs in Remote
 Salary Search: Marketing Operations Manager salaries in Remote
-See popular questions &amp; answers about Owner</t>
-  </si>
-  <si>
-    <t>Identify, test, and scale and optimize emerging growth channels such as influencer marketing, connected TV (CTV), and TikTok, and Google to leverage new…
-View all Owner jobs in Remote - Remote jobs - Growth Marketer jobs in Remote
-Salary Search: Growth Marketing Manager salaries in Remote
-See popular questions &amp; answers about Owner</t>
-  </si>
-  <si>
-    <t>Associate Product Marketing Manager</t>
-  </si>
-  <si>
-    <t>Marchex Inc.</t>
-  </si>
-  <si>
-    <t>Marchex enables executive, sales, and marketing teams to optimize customer journey experiences across communications channels.
-View all Marchex Inc. jobs in Remote - Remote jobs - Product Marketing Manager jobs in Remote
-Salary Search: Associate Product Marketing Manager salaries in Remote
-See popular questions &amp; answers about Marchex Inc.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Just posted</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=f7214ae66c16784e&amp;bb=gTwLoaIkX9kAGpeWmNtkfHu3OmBzvJUVZjbL2L3wH3PgFVKGi03ceKiTXaSFsPNqUshc4JfGKtVoYXNp0djpq6C4mB4QLafF-CaeXNLp0qcVSosKvvpc3qmeJKk_QCZU&amp;xkcb=SoBH67M39WwHFOQgXh0LbzkdCdPP&amp;fccid=7c25197676c927a2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=066e6f88bbc40ead&amp;bb=gTwLoaIkX9kAGpeWmNtkfOIm0WFW8W-s4ABrCHknRWUAodskD_fy3Uq6F3wr2EMkOlerIs-eiH5b4TmRhLQamYYDuDyuCNRwxu52HI9aCVsSQ4vxSzU0-NX-y-7yIdSm&amp;xkcb=SoDz67M39WwHFOQgXh0KbzkdCdPP&amp;fccid=f9684e7d32b8c49e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 day ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=e13a0df574e84cdb&amp;bb=gTwLoaIkX9kAGpeWmNtkfCiBPElfbnvOtuZIKv3_JcXTs6L-pKGhFv7xtuKOOSUCUh8yVwNMafO-l5FRjw3FizAbi6QsBdWU-MZ615Mi7IkazfkgyI0c8wVetVYPGQP2&amp;xkcb=SoBu67M39WwHFOQgXh0JbzkdCdPP&amp;fccid=73a9c64b1885a673&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=bfc27392faa34263&amp;bb=gTwLoaIkX9kAGpeWmNtkfDuL2EjEZvnZNmVDY5P3SI6upvM0pFH1U_b18ETo7qQPzUltHauZ1DjQp3Ba7OsVh82u4Z8kJFZEjNpigxHHKjxuuVWnIhqGXQFerXyzHjLQ&amp;xkcb=SoDa67M39WwHFOQgXh0IbzkdCdPP&amp;fccid=33f19eb1feb3b873&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>FittingScore</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=fe92ec5ed9d6b390&amp;bb=BDaZ0ELEODYLkxzNf_fu_Z8Yo_ug20L7fB6XO2uyb8xOEVfBt0PH0J8h63GvYWDkYYyiAu25ZJwZzpW46IKwQhjGSildDKzqcrjcnV4E2ImwYDqE4iBhQVXa9ZxHP5tL&amp;xkcb=SoDd67M39Ww698UUhh0ObzkdCdPP&amp;fccid=73a9c64b1885a673&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=588daacbfbd97b98&amp;bb=BDaZ0ELEODYLkxzNf_fu_eF-pZlnh9OOT-oQAd0RSbKx9TPsnZXHCrz8go5-ffY8MMevEG1kNiFG-O0ab5MXPNSfADwvJ8tCF5eP960jLi3sQGn3WMCpgwMMPSlboMLE&amp;xkcb=SoBA67M39Ww698UUhh0NbzkdCdPP&amp;fccid=4aa8fe3e72a441ec&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Global Marketing Operations Manager</t>
-  </si>
-  <si>
-    <t>GE HEALTHCARE</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=161383e370b60125&amp;bb=sykdRVqWm3XYecXGo39HiSIIW5ADr8Ftirj702NMN1WO-_AHZMVShwQf0XtMHbP4wP98JdlSylHJMHxY_kOv9AtZ4KkmxRyJ7jd7xEwNZjR0fdCPhO-UbigYSGnVSzCl&amp;xkcb=SoB967M39i1IkX0Tcx0KbzkdCdPP&amp;fccid=65b5f2aba4dbd31f&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>This role will streamline marketing operational processes, identify gaps, partner with other analytics teams to monitor and measure the effectiveness of…
-View all GE HEALTHCARE jobs in Remote - Remote jobs - Operations Manager jobs in Remote
-Salary Search: Global Marketing Operations Manager salaries in Remote
-See popular questions &amp; answers about GE HEALTHCARE</t>
-  </si>
-  <si>
-    <t>Global Partner Marketing Campaign Manager</t>
-  </si>
-  <si>
-    <t>Splunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=c5ec37c2e70ff44a&amp;bb=C3hSqhY4uDrwvuyGi1lHACQJwHhYFeM0n8_2nFYNtDaomIkgN_djbhSrnLH4KVXkydtJwY1U7iUelFTmf-ADmFB9WCYenXCOhznju7Bz7GYF064S6I81-w%3D%3D&amp;xkcb=SoDg67M39i2LOKgPKb0JbzkdCdPP&amp;fccid=aef928e89977f7f0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Ability to communicate and influence senior marketing professionals from product marketing to the CMO.
-Manage budget tracking and utilization in partnership…
-View all Splunk jobs in Remote - Remote jobs - Campaign Manager jobs in Remote
-Salary Search: Global Partner Marketing Campaign Manager salaries in Remote
-See popular questions &amp; answers about Splunk</t>
-  </si>
-  <si>
-    <t>Senior Campaign Strategist, Candidate Races</t>
-  </si>
-  <si>
-    <t>ACLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=5149f2d75fc3b0bd&amp;bb=C3hSqhY4uDrwvuyGi1lHAG96tY8MghPtF8ssdhMZYHgGqa6VuuC1Ad4do5h4Pru73H3Oyol1SLXtHST535ethoZVQ3RCranux-fbwv8UimLBj9byAchTQErfuBFYYinc&amp;xkcb=SoBU67M39i2LOKgPKb0IbzkdCdPP&amp;fccid=b386980fa584d9b2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>The ACLU seeks a full-time, term-limited position with an end date of December 31, 2024 of Senior Campaign Strategist in the National Political Advocacy…
-View all ACLU jobs in Remote - Remote jobs - Senior Content Strategist jobs in Remote
-Salary Search: Senior Campaign Strategist, Candidate Races salaries in Remote
-See popular questions &amp; answers about ACLU</t>
-  </si>
-  <si>
-    <t>Integrated Marketing Manager</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=88e077f43fc2c009&amp;bb=C3hSqhY4uDrwvuyGi1lHAFO-27iq6kreR93zwqHF7ZbOuq-KUg9J_qFMDsaBl6C16luGexh6S1svAVcUuEKRClzpnYGhkKiVTlCSJE1p-3sw0hnwTMtFU2ub6I1U-_Tf&amp;xkcb=SoDa67M39i2LOKgPKb0PbzkdCdPP&amp;fccid=0f65c592d7942f7e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Executes unique marketing opportunities that drive a competitive edge for the company.
-Track and report on the impact of integrated marketing campaigns on…
-View all C1 jobs in Remote - Remote jobs - Integration Manager jobs in Remote
-Salary Search: Integrated Marketing Manager salaries in Remote
-See popular questions &amp; answers about C1</t>
-  </si>
-  <si>
-    <t>Marketing Operations Manager (Remote)</t>
-  </si>
-  <si>
-    <t>Tealium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 days ago</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=5040c5e4570248da&amp;bb=C3hSqhY4uDrwvuyGi1lHAICfTHmZcWJA9M97DR5fz9tTJbfRxsprKX1a6VfK3w0Xr5s8qmPbCvk05jf0lE4bMQutu9mkFOp3570FQ54cpy6MQoFTQ29BAefLdQVqo7J8&amp;xkcb=SoDz67M39i2LOKgPKb0NbzkdCdPP&amp;fccid=3059be2cc4c2e331&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Build comprehensive dashboards, analyze marketing and sales data to develop insights, and provide actionable recommendations on how to optimize marketing…
-View all Tealium jobs in Remote - Remote jobs - Operations Manager jobs in Remote
-Salary Search: Marketing Operations Manager (Remote) salaries in Remote
-See popular questions &amp; answers about Tealium</t>
-  </si>
-  <si>
-    <t>Corporate Communications Manager</t>
-  </si>
-  <si>
-    <t>Zillow</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=c8dba3303782ca4c&amp;bb=elcRf6ZQ_qXWW15_FqlNTvFEg9S_qMSF6b0LtghIeO6hyLC0eiMtw8YaJsW7eSL33tvhnTEkekM1yLwqrK6KoHe_8nHP270uwriMXfmY4qG0-3Xir3J8IQJN6MvCbEN8&amp;xkcb=SoCd67M38KDWvfwSFZ0MbzkdCdPP&amp;fccid=913e1b259c8d65e2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Work with Zillow’s legal, industry, economic research, CSR, social impact and product teams to build, understand, and communicate policies and initiatives.
-View all Zillow jobs in Remote - Remote jobs - Communications Manager jobs in Remote
-Salary Search: Corporate Communications Manager salaries in Remote
-See popular questions &amp; answers about Zillow</t>
-  </si>
-  <si>
-    <t>Sr Product Marketing Manager</t>
-  </si>
-  <si>
-    <t>American Express Global Business Travel</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=45b6ba245d47cc3c&amp;bb=JF3ocd2XXu7G7_gsxJtnDHwCD5sINB3FCTRUGdlDQka5qvfq46f2EffAWFwPKYxLFeW1QE5zLOz0vhNLPfByxe7DQqibukflOnym2r3IVSaH-Uh6MpcC2iXMFN_7cPj6&amp;xkcb=SoD467M38KD0tHwYxh0KbzkdCdPP&amp;fccid=65a610215742c669&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Most importantly, you will be an evangelist and cross-functional leader who unites marketing, sales, customer success, and product teams to drive business…
-View all American Express Global Business Travel jobs in Remote - Remote jobs - Product Marketing Manager jobs in Remote
-Salary Search: Sr Product Marketing Manager salaries in Remote
-See popular questions &amp; answers about American Express Global Business Travel</t>
+See popular questions &amp; answers about Sphera Solutions</t>
+  </si>
+  <si>
+    <t>Product Marketing Manager (PMM)</t>
+  </si>
+  <si>
+    <t>ghSMART</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=53cd96872a502ab0&amp;bb=CfhYZYe_WqA-nUFsROVIxUMSnpGBhOqjmNoaJfCw2-C1ZzjNFz1CNfTJBgXb6Na_LrkG4wdD0T_Xnk44hgLzlBUloVBQ_tcYD75GNck_1LNZQlMCyRGhaCB1LeuQB677&amp;xkcb=SoBf67M38RD1TKwB3B0KbzkdCdPP&amp;fccid=bf064bdffeefb587&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>In collaboration with cross-functional teams, you'll create and implement marketing plans that align with business objectives and drive revenue growth and…
+View all ghSMART jobs in Remote - Remote jobs - Product Marketing Manager jobs in Remote
+Salary Search: Product Marketing Manager (PMM) salaries in Remote</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=0178b3e2ee41fdc0&amp;bb=GKrrx2_Y36bvT6ZEm6kRXK-8VltAGm-uLWYqmZvups_sZVW-yO8OOyGOaP7W3Hnlz4O-3KxBaYoXs0GcqTK5z6-PghmEocvPTwcD1sVuBQW00kObFP7DVJ6BiGPPSbrTuZTdVjNAoy8%3D&amp;xkcb=SoC367M38RESHCwB1Z0JbzkdCdPP&amp;fccid=6861a2b7f0d91107&amp;cmp=Sandhill-Digital-LLC&amp;ti=Marketing+Manager&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -1055,432 +899,209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74AAF4-DC53-47AD-96B0-FF6E848DDF68}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="7" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="123.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="2">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4">
-        <v>85</v>
-      </c>
+      <c r="H4" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="2">
-        <v>70</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
